--- a/userSql/vue方法.xlsx
+++ b/userSql/vue方法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7200"/>
+    <workbookView windowWidth="23040" windowHeight="9227"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>方法名</t>
   </si>
@@ -39,7 +39,7 @@
     <t>存储组件中的数据</t>
   </si>
   <si>
-    <t>setTimeout(()=&gt;{},时间)</t>
+    <t>this.timer = setTimeout(()=&gt;{},时间)</t>
   </si>
   <si>
     <t>延时</t>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>计算属性，多用于处理数据，有get和set方法</t>
+  </si>
+  <si>
+    <t>clearTimeout(this.timer)</t>
+  </si>
+  <si>
+    <t>清除延时</t>
   </si>
   <si>
     <t>methods</t>
@@ -68,12 +74,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,16 +96,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,49 +201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -166,37 +211,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -205,37 +234,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,19 +249,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,67 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,91 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,26 +440,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,24 +454,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,6 +473,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -527,17 +521,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,148 +545,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,16 +1051,16 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="29.4545454545455" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.4537037037037" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="16.3636363636364" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1818181818182" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3611111111111" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1851851851852" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1079,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:5">
+    <row r="2" ht="28.8" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1093,7 +1092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="28" spans="1:5">
+    <row r="3" ht="28.8" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1107,20 +1106,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="4:5">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="5" ht="28" spans="4:5">
+    <row r="5" ht="28.8" spans="4:5">
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1144,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1156,7 +1161,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
